--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H2">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I2">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J2">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N2">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O2">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P2">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q2">
-        <v>4.527180985494</v>
+        <v>1.409393649735</v>
       </c>
       <c r="R2">
-        <v>18.108723941976</v>
+        <v>5.63757459894</v>
       </c>
       <c r="S2">
-        <v>0.008490318082320685</v>
+        <v>0.003909579606961641</v>
       </c>
       <c r="T2">
-        <v>0.004122587466986797</v>
+        <v>0.001873592832909469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H3">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I3">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J3">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.744669</v>
       </c>
       <c r="O3">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P3">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q3">
-        <v>1.4432073418595</v>
+        <v>0.6940881425869999</v>
       </c>
       <c r="R3">
-        <v>8.659244051157</v>
+        <v>4.164528855522</v>
       </c>
       <c r="S3">
-        <v>0.002706604712820117</v>
+        <v>0.001925361908791231</v>
       </c>
       <c r="T3">
-        <v>0.001971342161560637</v>
+        <v>0.001384040473294629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H4">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I4">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J4">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N4">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O4">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P4">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q4">
-        <v>10.748214230717</v>
+        <v>6.395268560001</v>
       </c>
       <c r="R4">
-        <v>64.48928538430199</v>
+        <v>38.371611360006</v>
       </c>
       <c r="S4">
-        <v>0.02015730272947224</v>
+        <v>0.01774011933991897</v>
       </c>
       <c r="T4">
-        <v>0.01468147178852226</v>
+        <v>0.01275243010439496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H5">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I5">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J5">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N5">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O5">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P5">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q5">
-        <v>1.1535267545745</v>
+        <v>0.8085891395235</v>
       </c>
       <c r="R5">
-        <v>4.614107018298</v>
+        <v>3.234356558094</v>
       </c>
       <c r="S5">
-        <v>0.00216333499680837</v>
+        <v>0.002242981306809582</v>
       </c>
       <c r="T5">
-        <v>0.001050436233161523</v>
+        <v>0.001074906799008577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H6">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I6">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J6">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N6">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O6">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P6">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q6">
-        <v>3.0047944003485</v>
+        <v>3.876910187314</v>
       </c>
       <c r="R6">
-        <v>18.028766402091</v>
+        <v>23.261461123884</v>
       </c>
       <c r="S6">
-        <v>0.00563521986699434</v>
+        <v>0.01075433326182117</v>
       </c>
       <c r="T6">
-        <v>0.004104384530497334</v>
+        <v>0.007730719315520167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H7">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I7">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J7">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N7">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O7">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P7">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q7">
-        <v>17.73355081459</v>
+        <v>2.60666560775</v>
       </c>
       <c r="R7">
-        <v>106.40130488754</v>
+        <v>15.6399936465</v>
       </c>
       <c r="S7">
-        <v>0.03325766909414533</v>
+        <v>0.007230745437333153</v>
       </c>
       <c r="T7">
-        <v>0.02422305886411059</v>
+        <v>0.005197799069185124</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.36136</v>
       </c>
       <c r="I8">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J8">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N8">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O8">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P8">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q8">
-        <v>0.7235386008533333</v>
+        <v>0.4683605028</v>
       </c>
       <c r="R8">
-        <v>4.34123160512</v>
+        <v>2.8101630168</v>
       </c>
       <c r="S8">
-        <v>0.00135693114230814</v>
+        <v>0.001299205988899887</v>
       </c>
       <c r="T8">
-        <v>0.0009883140890490476</v>
+        <v>0.0009339302203776954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.36136</v>
       </c>
       <c r="I9">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J9">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.744669</v>
       </c>
       <c r="O9">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P9">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q9">
         <v>0.2306548433155556</v>
@@ -1013,10 +1013,10 @@
         <v>2.07589358984</v>
       </c>
       <c r="S9">
-        <v>0.0004325722769316709</v>
+        <v>0.0006398237084741953</v>
       </c>
       <c r="T9">
-        <v>0.0004725928190022854</v>
+        <v>0.000689902950914074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.36136</v>
       </c>
       <c r="I10">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J10">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N10">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O10">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P10">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q10">
-        <v>1.717790366915555</v>
+        <v>2.125233925146667</v>
       </c>
       <c r="R10">
-        <v>15.46011330224</v>
+        <v>19.12710532632</v>
       </c>
       <c r="S10">
-        <v>0.003221560317688066</v>
+        <v>0.005895280722556614</v>
       </c>
       <c r="T10">
-        <v>0.003519611295761779</v>
+        <v>0.006356706563215288</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.36136</v>
       </c>
       <c r="I11">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J11">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N11">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O11">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P11">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q11">
-        <v>0.1843578016266667</v>
+        <v>0.2687050676133333</v>
       </c>
       <c r="R11">
-        <v>1.10614680976</v>
+        <v>1.61223040568</v>
       </c>
       <c r="S11">
-        <v>0.0003457463666204587</v>
+        <v>0.0007453729146756558</v>
       </c>
       <c r="T11">
-        <v>0.000251822656813134</v>
+        <v>0.000535809022136706</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.36136</v>
       </c>
       <c r="I12">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J12">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N12">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O12">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P12">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q12">
-        <v>0.4802292515466667</v>
+        <v>1.288349500497778</v>
       </c>
       <c r="R12">
-        <v>4.322063263920001</v>
+        <v>11.59514550448</v>
       </c>
       <c r="S12">
-        <v>0.0009006264850312988</v>
+        <v>0.003573809868330533</v>
       </c>
       <c r="T12">
-        <v>0.0009839502717283325</v>
+        <v>0.003853533311616121</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.36136</v>
       </c>
       <c r="I13">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J13">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N13">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O13">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P13">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q13">
-        <v>2.834193858311111</v>
+        <v>0.8662301088888889</v>
       </c>
       <c r="R13">
-        <v>25.5077447248</v>
+        <v>7.79607098</v>
       </c>
       <c r="S13">
-        <v>0.005315273995257627</v>
+        <v>0.002402874150373051</v>
       </c>
       <c r="T13">
-        <v>0.005807030304868869</v>
+        <v>0.002590948014369141</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H14">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I14">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J14">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N14">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O14">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P14">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q14">
-        <v>20.534117996876</v>
+        <v>11.62866702105</v>
       </c>
       <c r="R14">
-        <v>123.204707981256</v>
+        <v>69.77200212630001</v>
       </c>
       <c r="S14">
-        <v>0.03850987930281718</v>
+        <v>0.03225727563778413</v>
       </c>
       <c r="T14">
-        <v>0.02804848020350739</v>
+        <v>0.02318804316064558</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H15">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I15">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J15">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.744669</v>
       </c>
       <c r="O15">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P15">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q15">
-        <v>6.546013942596333</v>
+        <v>5.72680307941</v>
       </c>
       <c r="R15">
-        <v>58.91412548336699</v>
+        <v>51.54122771469</v>
       </c>
       <c r="S15">
-        <v>0.01227645652383486</v>
+        <v>0.01588583327060982</v>
       </c>
       <c r="T15">
-        <v>0.01341224462443894</v>
+        <v>0.01712922341883601</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H16">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I16">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J16">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N16">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O16">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P16">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q16">
-        <v>48.75111023315132</v>
+        <v>52.76627194143001</v>
       </c>
       <c r="R16">
-        <v>438.759992098362</v>
+        <v>474.8964474728701</v>
       </c>
       <c r="S16">
-        <v>0.09142829369357941</v>
+        <v>0.1463707039948671</v>
       </c>
       <c r="T16">
-        <v>0.09988701855723117</v>
+        <v>0.1578271940785732</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H17">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I17">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J17">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N17">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O17">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P17">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q17">
-        <v>5.232097980373</v>
+        <v>6.671531308605</v>
       </c>
       <c r="R17">
-        <v>31.392587882238</v>
+        <v>40.02918785163001</v>
       </c>
       <c r="S17">
-        <v>0.009812326088480232</v>
+        <v>0.01850645684137461</v>
       </c>
       <c r="T17">
-        <v>0.007146759195969829</v>
+        <v>0.01330330945511608</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H18">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I18">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J18">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N18">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O18">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P18">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q18">
-        <v>13.628967556369</v>
+        <v>31.98772581902</v>
       </c>
       <c r="R18">
-        <v>122.660708007321</v>
+        <v>287.8895323711801</v>
       </c>
       <c r="S18">
-        <v>0.02555989479059342</v>
+        <v>0.08873217256132451</v>
       </c>
       <c r="T18">
-        <v>0.02792463451002995</v>
+        <v>0.09567727309927208</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H19">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I19">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J19">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N19">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O19">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P19">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q19">
-        <v>80.43478405152666</v>
+        <v>21.5071540825</v>
       </c>
       <c r="R19">
-        <v>723.91305646374</v>
+        <v>193.5643867425</v>
       </c>
       <c r="S19">
-        <v>0.1508481555450157</v>
+        <v>0.05965964939641499</v>
       </c>
       <c r="T19">
-        <v>0.1648042624829956</v>
+        <v>0.06432923260571198</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H20">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I20">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J20">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N20">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O20">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P20">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q20">
-        <v>2.502329098068</v>
+        <v>1.20019063779</v>
       </c>
       <c r="R20">
-        <v>10.009316392272</v>
+        <v>4.80076255116</v>
       </c>
       <c r="S20">
-        <v>0.004692891681891896</v>
+        <v>0.003329262085757464</v>
       </c>
       <c r="T20">
-        <v>0.00227869630373212</v>
+        <v>0.00159548652536585</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H21">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I21">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J21">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.744669</v>
       </c>
       <c r="O21">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P21">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q21">
-        <v>0.797710482009</v>
+        <v>0.5910613338513333</v>
       </c>
       <c r="R21">
-        <v>4.786262892054</v>
+        <v>3.546368003108</v>
       </c>
       <c r="S21">
-        <v>0.001496033790466789</v>
+        <v>0.001639571270754062</v>
       </c>
       <c r="T21">
-        <v>0.001089628815134099</v>
+        <v>0.001178600754078169</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H22">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I22">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J22">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N22">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O22">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P22">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q22">
-        <v>5.940908770373999</v>
+        <v>5.445988388914</v>
       </c>
       <c r="R22">
-        <v>35.64545262224399</v>
+        <v>32.675930333484</v>
       </c>
       <c r="S22">
-        <v>0.01114163655487697</v>
+        <v>0.01510686893548256</v>
       </c>
       <c r="T22">
-        <v>0.008114955902271025</v>
+        <v>0.01085952616803968</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H23">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I23">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J23">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N23">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O23">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P23">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q23">
-        <v>0.6375940287390001</v>
+        <v>0.688566402479</v>
       </c>
       <c r="R23">
-        <v>2.550376114956</v>
+        <v>2.754265609916</v>
       </c>
       <c r="S23">
-        <v>0.001195749878064954</v>
+        <v>0.001910044908799612</v>
       </c>
       <c r="T23">
-        <v>0.0005806123413946524</v>
+        <v>0.000915353263376403</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H24">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I24">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J24">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N24">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O24">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P24">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q24">
-        <v>1.660853516967</v>
+        <v>3.301441943662667</v>
       </c>
       <c r="R24">
-        <v>9.965121101802</v>
+        <v>19.808651661976</v>
       </c>
       <c r="S24">
-        <v>0.003114780410231848</v>
+        <v>0.009158016356138856</v>
       </c>
       <c r="T24">
-        <v>0.002268634912814943</v>
+        <v>0.006583211828444219</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H25">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I25">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J25">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N25">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O25">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P25">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q25">
-        <v>9.801945262979999</v>
+        <v>2.219745816833333</v>
       </c>
       <c r="R25">
-        <v>58.81167157787999</v>
+        <v>13.318474901</v>
       </c>
       <c r="S25">
-        <v>0.0183826609483596</v>
+        <v>0.006157451454220569</v>
       </c>
       <c r="T25">
-        <v>0.01338892022079471</v>
+        <v>0.004426264997804213</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H26">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I26">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J26">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N26">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O26">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P26">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q26">
-        <v>6.617136530233332</v>
+        <v>4.069354946400001</v>
       </c>
       <c r="R26">
-        <v>39.7028191814</v>
+        <v>24.4161296784</v>
       </c>
       <c r="S26">
-        <v>0.01240984049805872</v>
+        <v>0.01128816432153308</v>
       </c>
       <c r="T26">
-        <v>0.00903864597448948</v>
+        <v>0.008114462127284268</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H27">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I27">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J27">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.744669</v>
       </c>
       <c r="O27">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P27">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q27">
-        <v>2.109458414213889</v>
+        <v>2.004046929546667</v>
       </c>
       <c r="R27">
-        <v>18.985125727925</v>
+        <v>18.03642236592</v>
       </c>
       <c r="S27">
-        <v>0.00395609828179851</v>
+        <v>0.005559114736058949</v>
       </c>
       <c r="T27">
-        <v>0.004322106937843778</v>
+        <v>0.005994228738448916</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H28">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I28">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J28">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N28">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O28">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P28">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q28">
-        <v>15.71008564683889</v>
+        <v>18.46511636624</v>
       </c>
       <c r="R28">
-        <v>141.39077082155</v>
+        <v>166.18604729616</v>
       </c>
       <c r="S28">
-        <v>0.02946284336092391</v>
+        <v>0.05122120594143388</v>
       </c>
       <c r="T28">
-        <v>0.03218867445349768</v>
+        <v>0.05523030900596573</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H29">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I29">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J29">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N29">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O29">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P29">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q29">
-        <v>1.686047907241667</v>
+        <v>2.33464668664</v>
       </c>
       <c r="R29">
-        <v>10.11628744345</v>
+        <v>14.00788011984</v>
       </c>
       <c r="S29">
-        <v>0.003162030208286632</v>
+        <v>0.006476180077343543</v>
       </c>
       <c r="T29">
-        <v>0.002303049069632681</v>
+        <v>0.004655382086069773</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H30">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I30">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J30">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N30">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O30">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P30">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q30">
-        <v>4.391946082141667</v>
+        <v>11.19383761269333</v>
       </c>
       <c r="R30">
-        <v>39.527514739275</v>
+        <v>100.74453851424</v>
       </c>
       <c r="S30">
-        <v>0.008236697264206226</v>
+        <v>0.03105108304018156</v>
       </c>
       <c r="T30">
-        <v>0.008998736597201091</v>
+        <v>0.03348146299483868</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H31">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I31">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J31">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N31">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O31">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P31">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q31">
-        <v>25.92017577427778</v>
+        <v>7.526249026666667</v>
       </c>
       <c r="R31">
-        <v>233.2815819685</v>
+        <v>67.73624124</v>
       </c>
       <c r="S31">
-        <v>0.0486109430522949</v>
+        <v>0.02087739625980535</v>
       </c>
       <c r="T31">
-        <v>0.05310831007108772</v>
+        <v>0.0225114779216142</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H32">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I32">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J32">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N32">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O32">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P32">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q32">
-        <v>27.616797235232</v>
+        <v>13.3996778541</v>
       </c>
       <c r="R32">
-        <v>165.700783411392</v>
+        <v>80.39806712459999</v>
       </c>
       <c r="S32">
-        <v>0.05179280300332161</v>
+        <v>0.03716996120146768</v>
       </c>
       <c r="T32">
-        <v>0.03772303201211414</v>
+        <v>0.02671951203497114</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H33">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I33">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J33">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.744669</v>
       </c>
       <c r="O33">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P33">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q33">
-        <v>8.803881412349332</v>
+        <v>6.598977875886666</v>
       </c>
       <c r="R33">
-        <v>79.234932711144</v>
+        <v>59.39080088298</v>
       </c>
       <c r="S33">
-        <v>0.01651088255348823</v>
+        <v>0.01830519765376298</v>
       </c>
       <c r="T33">
-        <v>0.01803842952099587</v>
+        <v>0.01973795236271054</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H34">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I34">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J34">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N34">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O34">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P34">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q34">
-        <v>65.56646487110932</v>
+        <v>60.80241564206</v>
       </c>
       <c r="R34">
-        <v>590.0981838399839</v>
+        <v>547.22174077854</v>
       </c>
       <c r="S34">
-        <v>0.122963968984836</v>
+        <v>0.168662519724634</v>
       </c>
       <c r="T34">
-        <v>0.13434029834379</v>
+        <v>0.1818637986143352</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H35">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I35">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J35">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N35">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O35">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P35">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q35">
-        <v>7.036766276536</v>
+        <v>7.68758535841</v>
       </c>
       <c r="R35">
-        <v>42.220597659216</v>
+        <v>46.12551215046</v>
       </c>
       <c r="S35">
-        <v>0.01319681809721569</v>
+        <v>0.02132493427203092</v>
       </c>
       <c r="T35">
-        <v>0.009611837218143767</v>
+        <v>0.01532936326831571</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H36">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I36">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J36">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N36">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O36">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P36">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q36">
-        <v>18.329905067608</v>
+        <v>36.85935976017333</v>
       </c>
       <c r="R36">
-        <v>164.969145608472</v>
+        <v>331.73423784156</v>
       </c>
       <c r="S36">
-        <v>0.03437607750637607</v>
+        <v>0.1022458141989865</v>
       </c>
       <c r="T36">
-        <v>0.03755646915288915</v>
+        <v>0.1102486325533494</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H37">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I37">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J37">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N37">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O37">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P37">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q37">
-        <v>108.1785505541867</v>
+        <v>24.78262863166666</v>
       </c>
       <c r="R37">
-        <v>973.60695498768</v>
+        <v>223.043657685</v>
       </c>
       <c r="S37">
-        <v>0.2028790779145824</v>
+        <v>0.06874563364428758</v>
       </c>
       <c r="T37">
-        <v>0.2216489600959376</v>
+        <v>0.074126380259891</v>
       </c>
     </row>
   </sheetData>
